--- a/data_analyzed/Energy (kcal)/Energy (kcal)_games_4q.xlsx
+++ b/data_analyzed/Energy (kcal)/Energy (kcal)_games_4q.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,114 +441,234 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Daud</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DeLeo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Diedrichsen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Forman</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Hartsch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>LaCroix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Larripa</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Ricci</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Smyth</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44801</v>
       </c>
       <c r="B2" t="n">
+        <v>258.7021</v>
+      </c>
+      <c r="C2" t="n">
         <v>205.8068</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>9.0684</v>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>251.5016</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>243.4657</v>
+      </c>
       <c r="J2" t="n">
+        <v>131.1013</v>
+      </c>
+      <c r="K2" t="n">
+        <v>251.5016</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>203.8892</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>218.5135</v>
+      </c>
+      <c r="P2" t="n">
+        <v>31.9446</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>189.9056</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>11.5126</v>
       </c>
-      <c r="K2" t="n">
+      <c r="U2" t="n">
+        <v>133.6143</v>
+      </c>
+      <c r="V2" t="n">
         <v>12.6302</v>
       </c>
-      <c r="L2" t="n">
+      <c r="W2" t="n">
+        <v>50.8377</v>
+      </c>
+      <c r="X2" t="n">
         <v>216.4888</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="Y2" t="n">
+        <v>14.773</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>235.8125</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>247.5043</v>
+      </c>
+      <c r="AE2" t="n">
         <v>20.9907</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8.552099999999999</v>
       </c>
     </row>
     <row r="3">
@@ -556,35 +676,75 @@
         <v>44804</v>
       </c>
       <c r="B3" t="n">
+        <v>28.4776</v>
+      </c>
+      <c r="C3" t="n">
         <v>197.4344</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>21.962</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>22.9333</v>
-      </c>
+      <c r="E3" t="n">
+        <v>85.36539999999999</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>252.5943</v>
+      </c>
       <c r="J3" t="n">
-        <v>30.5554</v>
+        <v>122.8914</v>
       </c>
       <c r="K3" t="n">
-        <v>18.5809</v>
-      </c>
-      <c r="L3" t="n">
-        <v>227.1343</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>214.0167</v>
-      </c>
+        <v>22.9333</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>235.5112</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
+        <v>25.1479</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>226.107</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>30.5554</v>
+      </c>
+      <c r="U3" t="n">
+        <v>194.7328</v>
+      </c>
+      <c r="V3" t="n">
+        <v>18.5809</v>
+      </c>
+      <c r="W3" t="n">
+        <v>141.0225</v>
+      </c>
+      <c r="X3" t="n">
+        <v>227.1343</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>22.051</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>214.0167</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>246.4863</v>
+      </c>
+      <c r="AE3" t="n">
         <v>79.44370000000001</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>93.9357</v>
       </c>
     </row>
     <row r="4">
@@ -592,35 +752,77 @@
         <v>44808</v>
       </c>
       <c r="B4" t="n">
+        <v>68.6647</v>
+      </c>
+      <c r="C4" t="n">
         <v>177.7718</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>8.2608</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>83.4538</v>
-      </c>
+      <c r="E4" t="n">
+        <v>37.6867</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>223.5291</v>
+      </c>
       <c r="J4" t="n">
+        <v>139.5739</v>
+      </c>
+      <c r="K4" t="n">
+        <v>83.4538</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>172.0158</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>192.1031</v>
+      </c>
+      <c r="P4" t="n">
+        <v>18.122</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>193.0313</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
         <v>209.5838</v>
       </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
+        <v>177.833</v>
+      </c>
+      <c r="V4" t="n">
         <v>8.1005</v>
       </c>
-      <c r="L4" t="n">
+      <c r="W4" t="n">
+        <v>111.2705</v>
+      </c>
+      <c r="X4" t="n">
         <v>204.3392</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="Y4" t="n">
+        <v>18.4311</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
         <v>100.0411</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>251.9414</v>
+      </c>
+      <c r="AE4" t="n">
         <v>4.8773</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>118.4133</v>
       </c>
     </row>
     <row r="5">
@@ -628,313 +830,683 @@
         <v>44813</v>
       </c>
       <c r="B5" t="n">
+        <v>5.9827</v>
+      </c>
+      <c r="C5" t="n">
         <v>160.0658</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>2.3143</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>146.0348</v>
-      </c>
+      <c r="E5" t="n">
+        <v>52.5973</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>227.814</v>
+      </c>
       <c r="J5" t="n">
+        <v>133.1805</v>
+      </c>
+      <c r="K5" t="n">
+        <v>146.0348</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>93.7681</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>4.3586</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11.6442</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>200.4047</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>149.319</v>
       </c>
-      <c r="K5" t="n">
+      <c r="U5" t="n">
+        <v>52.0171</v>
+      </c>
+      <c r="V5" t="n">
         <v>257.6859</v>
       </c>
-      <c r="L5" t="n">
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
         <v>173.5437</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="Y5" t="n">
+        <v>9.1343</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
         <v>144.1441</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>249.3253</v>
+      </c>
+      <c r="AE5" t="n">
         <v>38.9641</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44815</v>
       </c>
       <c r="B6" t="n">
+        <v>82.1319</v>
+      </c>
+      <c r="C6" t="n">
         <v>159.3736</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>30.2634</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>109.8669</v>
-      </c>
+      <c r="E6" t="n">
+        <v>61.185</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>232.4381</v>
+      </c>
       <c r="J6" t="n">
+        <v>119.0082</v>
+      </c>
+      <c r="K6" t="n">
+        <v>109.8669</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>137.3248</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>211.1148</v>
+      </c>
+      <c r="P6" t="n">
+        <v>39.1952</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>200.5561</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>191.7424</v>
       </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
+        <v>87.52370000000001</v>
+      </c>
+      <c r="V6" t="n">
         <v>217.0286</v>
       </c>
-      <c r="L6" t="n">
+      <c r="W6" t="n">
+        <v>221.4491</v>
+      </c>
+      <c r="X6" t="n">
         <v>179.4131</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="Y6" t="n">
+        <v>32.9502</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
         <v>143.9003</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>35.9556</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>203.7673</v>
+      </c>
+      <c r="AE6" t="n">
         <v>69.15770000000001</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44820</v>
       </c>
       <c r="B7" t="n">
+        <v>5.8067</v>
+      </c>
+      <c r="C7" t="n">
         <v>221.0342</v>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>4.3481</v>
-      </c>
+      <c r="E7" t="n">
+        <v>54.8307</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>262.8858</v>
+      </c>
       <c r="J7" t="n">
+        <v>86.574</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.3481</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>167.4436</v>
+      </c>
+      <c r="P7" t="n">
+        <v>19.797</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>248.1001</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>283.3061</v>
       </c>
-      <c r="K7" t="n">
+      <c r="U7" t="n">
+        <v>88.6418</v>
+      </c>
+      <c r="V7" t="n">
         <v>144.9424</v>
       </c>
-      <c r="L7" t="n">
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
         <v>188.7703</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="Y7" t="n">
+        <v>7.7699</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
         <v>149.8043</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>212.6249</v>
+      </c>
+      <c r="AE7" t="n">
         <v>72.9693</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44822</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>197.4508</v>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>6.4052</v>
-      </c>
+      <c r="E8" t="n">
+        <v>44.0854</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>69.3755</v>
+      </c>
       <c r="J8" t="n">
+        <v>101.483</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.4052</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>23.9093</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>2.3594</v>
+      </c>
+      <c r="P8" t="n">
+        <v>19.0653</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>189.4427</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>248.1543</v>
       </c>
-      <c r="K8" t="n">
+      <c r="U8" t="n">
+        <v>162.9298</v>
+      </c>
+      <c r="V8" t="n">
         <v>133.3034</v>
       </c>
-      <c r="L8" t="n">
+      <c r="W8" t="n">
+        <v>174.1635</v>
+      </c>
+      <c r="X8" t="n">
         <v>183.3747</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="Y8" t="n">
+        <v>10.8609</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
         <v>189.3739</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>8.2272</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>205.3822</v>
+      </c>
+      <c r="AE8" t="n">
         <v>87.7877</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>44827</v>
       </c>
       <c r="B9" t="n">
+        <v>256.62</v>
+      </c>
+      <c r="C9" t="n">
         <v>253.8856</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>15.1353</v>
-      </c>
+      <c r="E9" t="n">
+        <v>43.7841</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>101.7223</v>
+      </c>
       <c r="J9" t="n">
+        <v>12.0666</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.1353</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>99.3404</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>106.7251</v>
+      </c>
+      <c r="P9" t="n">
+        <v>23.343</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>190.7625</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>286.267</v>
       </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
+        <v>223.3646</v>
+      </c>
+      <c r="V9" t="n">
         <v>5.7584</v>
       </c>
-      <c r="L9" t="n">
+      <c r="W9" t="n">
+        <v>291.4962</v>
+      </c>
+      <c r="X9" t="n">
         <v>230.8556</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="Y9" t="n">
+        <v>11.6311</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
         <v>215.9938</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>19.5383</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>263.1621</v>
+      </c>
+      <c r="AE9" t="n">
         <v>54.4329</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>44829</v>
       </c>
       <c r="B10" t="n">
+        <v>12.1289</v>
+      </c>
+      <c r="C10" t="n">
         <v>233.2239</v>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>13.3264</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>195.4501</v>
+      </c>
       <c r="J10" t="n">
+        <v>112.9111</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13.3264</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>59.0708</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>17.9334</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>214.5609</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>280.6127</v>
       </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
+        <v>35.7451</v>
+      </c>
+      <c r="V10" t="n">
         <v>296.3867</v>
       </c>
-      <c r="L10" t="n">
+      <c r="W10" t="n">
+        <v>134.681</v>
+      </c>
+      <c r="X10" t="n">
         <v>191.2312</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="Y10" t="n">
+        <v>22.4393</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
         <v>219.8853</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>20.2361</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>192.9302</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44834</v>
       </c>
       <c r="B11" t="n">
+        <v>225.4566</v>
+      </c>
+      <c r="C11" t="n">
         <v>238.5252</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>48.8233</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>3.3481</v>
-      </c>
+      <c r="E11" t="n">
+        <v>72.1315</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>27.6177</v>
+      </c>
       <c r="J11" t="n">
+        <v>108.2477</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.3481</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>37.0313</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>191.9289</v>
+      </c>
+      <c r="P11" t="n">
+        <v>38.6822</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>199.3531</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>271.1024</v>
       </c>
-      <c r="K11" t="n">
+      <c r="U11" t="n">
+        <v>119.5429</v>
+      </c>
+      <c r="V11" t="n">
         <v>217.2421</v>
       </c>
-      <c r="L11" t="n">
+      <c r="W11" t="n">
+        <v>262.171</v>
+      </c>
+      <c r="X11" t="n">
         <v>198.718</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="Y11" t="n">
+        <v>20.8175</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
         <v>195.3512</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>3.8518</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>259.7025</v>
+      </c>
+      <c r="AE11" t="n">
         <v>89.06659999999999</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>44836</v>
       </c>
       <c r="B12" t="n">
+        <v>203.918</v>
+      </c>
+      <c r="C12" t="n">
         <v>196.4876</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1.5613</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>7.4994</v>
-      </c>
+      <c r="E12" t="n">
+        <v>28.1868</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>227.1928</v>
+      </c>
       <c r="J12" t="n">
+        <v>171.3709</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.4994</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>90.5421</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>3.6784</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.5285</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>193.9942</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
         <v>233.7268</v>
       </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
+        <v>121.7184</v>
+      </c>
+      <c r="V12" t="n">
         <v>0.0023</v>
       </c>
-      <c r="L12" t="n">
+      <c r="W12" t="n">
+        <v>3.1742</v>
+      </c>
+      <c r="X12" t="n">
         <v>165.7542</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="Y12" t="n">
+        <v>68.3309</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
         <v>165.0294</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>6.1905</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>216.2363</v>
+      </c>
+      <c r="AE12" t="n">
         <v>19.2022</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>44841</v>
       </c>
       <c r="B13" t="n">
+        <v>240.3265</v>
+      </c>
+      <c r="C13" t="n">
         <v>210.088</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>10.4734</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>8.9422</v>
-      </c>
+      <c r="E13" t="n">
+        <v>64.0231</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>253.5528</v>
+      </c>
       <c r="J13" t="n">
+        <v>61.0803</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8.9422</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>61.1232</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>255.1872</v>
+      </c>
+      <c r="P13" t="n">
+        <v>19.8291</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>239.8629</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>258.5216</v>
       </c>
-      <c r="K13" t="n">
+      <c r="U13" t="n">
+        <v>131.7916</v>
+      </c>
+      <c r="V13" t="n">
         <v>3.2047</v>
       </c>
-      <c r="L13" t="n">
+      <c r="W13" t="n">
+        <v>12.1521</v>
+      </c>
+      <c r="X13" t="n">
         <v>199.0463</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="Y13" t="n">
+        <v>17.0925</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
         <v>194.432</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>13.2331</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>257.3671</v>
+      </c>
+      <c r="AE13" t="n">
         <v>74.9243</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>6.061</v>
       </c>
     </row>
     <row r="14">
@@ -942,35 +1514,79 @@
         <v>44843</v>
       </c>
       <c r="B14" t="n">
+        <v>195.9655</v>
+      </c>
+      <c r="C14" t="n">
         <v>235.1901</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>35.6038</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>38.1953</v>
-      </c>
+      <c r="E14" t="n">
+        <v>90.1238</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>70.5368</v>
+      </c>
       <c r="J14" t="n">
+        <v>40.3733</v>
+      </c>
+      <c r="K14" t="n">
+        <v>38.1953</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>110.578</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>278.4137</v>
+      </c>
+      <c r="P14" t="n">
+        <v>47.4587</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>222.6699</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
         <v>291.5417</v>
       </c>
-      <c r="K14" t="n">
+      <c r="U14" t="n">
+        <v>218.4337</v>
+      </c>
+      <c r="V14" t="n">
         <v>146.8444</v>
       </c>
-      <c r="L14" t="n">
+      <c r="W14" t="n">
+        <v>271.7773</v>
+      </c>
+      <c r="X14" t="n">
         <v>198.6807</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="Y14" t="n">
+        <v>37.5528</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
         <v>206.0708</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>41.4585</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>263.8556</v>
+      </c>
+      <c r="AE14" t="n">
         <v>32.0285</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>40.1435</v>
       </c>
     </row>
     <row r="15">
@@ -978,71 +1594,157 @@
         <v>44848</v>
       </c>
       <c r="B15" t="n">
+        <v>29.8735</v>
+      </c>
+      <c r="C15" t="n">
         <v>208.7806</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>37.6578</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>28.7802</v>
-      </c>
+      <c r="E15" t="n">
+        <v>51.9817</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>201.822</v>
+      </c>
       <c r="J15" t="n">
+        <v>89.6242</v>
+      </c>
+      <c r="K15" t="n">
+        <v>28.7802</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>85.7487</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>237.5543</v>
+      </c>
+      <c r="P15" t="n">
+        <v>38.3276</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
         <v>251.534</v>
       </c>
-      <c r="K15" t="n">
+      <c r="U15" t="n">
+        <v>172.4799</v>
+      </c>
+      <c r="V15" t="n">
         <v>25.4815</v>
       </c>
-      <c r="L15" t="n">
+      <c r="W15" t="n">
+        <v>104.7789</v>
+      </c>
+      <c r="X15" t="n">
         <v>178.1845</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="Y15" t="n">
+        <v>6.9445</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
         <v>206.7527</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>34.3598</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>214.9137</v>
+      </c>
+      <c r="AE15" t="n">
         <v>49.5522</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>38.5321</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>44850</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>194.84</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>5.5974</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>7.07</v>
-      </c>
+      <c r="E16" t="n">
+        <v>60.5835</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>5.3926</v>
+      </c>
       <c r="J16" t="n">
+        <v>138.3138</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>67.13339999999999</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>237.0599</v>
+      </c>
+      <c r="P16" t="n">
+        <v>15.3582</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>204.0182</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
         <v>259.9459</v>
       </c>
-      <c r="K16" t="n">
+      <c r="U16" t="n">
+        <v>170.0362</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.2684</v>
       </c>
-      <c r="L16" t="n">
+      <c r="W16" t="n">
+        <v>252.4024</v>
+      </c>
+      <c r="X16" t="n">
         <v>169.5315</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="Y16" t="n">
+        <v>14.2063</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
         <v>179.413</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>12.4636</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>241.8464</v>
+      </c>
+      <c r="AE16" t="n">
         <v>90.005</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>5.6447</v>
       </c>
     </row>
     <row r="17">
@@ -1050,35 +1752,79 @@
         <v>44855</v>
       </c>
       <c r="B17" t="n">
+        <v>240.4073</v>
+      </c>
+      <c r="C17" t="n">
         <v>213.8349</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>13.9365</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
+      <c r="E17" t="n">
+        <v>63.3074</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>295.8784</v>
+      </c>
       <c r="J17" t="n">
+        <v>13.5702</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>11.9548</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>272.4769</v>
+      </c>
+      <c r="P17" t="n">
+        <v>20.5302</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>187.5649</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
         <v>253.8185</v>
       </c>
-      <c r="K17" t="n">
+      <c r="U17" t="n">
+        <v>10.737</v>
+      </c>
+      <c r="V17" t="n">
         <v>9.113</v>
       </c>
-      <c r="L17" t="n">
+      <c r="W17" t="n">
+        <v>268.2542</v>
+      </c>
+      <c r="X17" t="n">
         <v>204.5898</v>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="Y17" t="n">
+        <v>15.6498</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
         <v>200.7688</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>232.4201</v>
+      </c>
+      <c r="AE17" t="n">
         <v>21.3641</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.507300000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1086,35 +1832,77 @@
         <v>44862</v>
       </c>
       <c r="B18" t="n">
+        <v>93.77030000000001</v>
+      </c>
+      <c r="C18" t="n">
         <v>209.6554</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>6.8718</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>187.3306</v>
-      </c>
+      <c r="E18" t="n">
+        <v>61.1685</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>177.6543</v>
+      </c>
       <c r="J18" t="n">
+        <v>4.2056</v>
+      </c>
+      <c r="K18" t="n">
+        <v>187.3306</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>45.6196</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>251.1446</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9.560700000000001</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
         <v>242.247</v>
       </c>
-      <c r="K18" t="n">
+      <c r="U18" t="n">
+        <v>93.7885</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.9142</v>
       </c>
-      <c r="L18" t="n">
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
         <v>199.0486</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="Y18" t="n">
+        <v>4.1166</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
         <v>207.6892</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>10.7904</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>225.2449</v>
+      </c>
+      <c r="AE18" t="n">
         <v>36.683</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2.5042</v>
       </c>
     </row>
     <row r="19">
@@ -1122,794 +1910,1342 @@
         <v>44864</v>
       </c>
       <c r="B19" t="n">
+        <v>212.7535</v>
+      </c>
+      <c r="C19" t="n">
         <v>172.9704</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>17.7093</v>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>6.4079</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>231.6734</v>
+      </c>
       <c r="J19" t="n">
+        <v>4.9625</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.4079</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>3.814</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>211.7468</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.8035</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>153.0018</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
         <v>222.4842</v>
       </c>
-      <c r="K19" t="n">
+      <c r="U19" t="n">
+        <v>71.8844</v>
+      </c>
+      <c r="V19" t="n">
         <v>90.31740000000001</v>
       </c>
-      <c r="L19" t="n">
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
         <v>193.3298</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="Y19" t="n">
+        <v>4.9795</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
         <v>182.4557</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>39.6089</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>234.465</v>
+      </c>
+      <c r="AE19" t="n">
         <v>56.7616</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.2417</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>45010</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
         <v>186.6621</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>89.77679999999999</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>220.9064</v>
-      </c>
+      <c r="E20" t="n">
+        <v>51.7201</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>206.4361</v>
+      </c>
       <c r="J20" t="n">
+        <v>157.7406</v>
+      </c>
+      <c r="K20" t="n">
+        <v>220.9064</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>166.816</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
         <v>218.1458</v>
       </c>
-      <c r="K20" t="n">
+      <c r="U20" t="n">
+        <v>190.7284</v>
+      </c>
+      <c r="V20" t="n">
         <v>166.9704</v>
       </c>
-      <c r="L20" t="n">
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
         <v>168.2829</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
         <v>168.1247</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>12.6582</v>
+      </c>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="n">
         <v>49.9695</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>45035</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>108.0677</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>173.6342</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E21" t="n">
+        <v>7.7029</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>207.3154</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>125.4809</v>
+      </c>
+      <c r="X21" t="n">
         <v>162.8986</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
         <v>0</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
         <v>0</v>
       </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>45156</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>202.2734</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>110.5401</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>177.2049</v>
+      </c>
+      <c r="G22" t="n">
         <v>56.5375</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>94.127</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
+        <v>108.5555</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8.0662</v>
+      </c>
+      <c r="K22" t="n">
         <v>55.172</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>144.9195</v>
       </c>
-      <c r="I22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>96.8215</v>
+      </c>
+      <c r="R22" t="n">
         <v>68.62260000000001</v>
       </c>
-      <c r="J22" t="n">
+      <c r="S22" t="n">
+        <v>221.8346</v>
+      </c>
+      <c r="T22" t="n">
         <v>198.5609</v>
       </c>
-      <c r="K22" t="n">
+      <c r="U22" t="n">
+        <v>117.2577</v>
+      </c>
+      <c r="V22" t="n">
         <v>108.3555</v>
       </c>
-      <c r="L22" t="n">
+      <c r="W22" t="n">
+        <v>174.7796</v>
+      </c>
+      <c r="X22" t="n">
         <v>206.8828</v>
       </c>
-      <c r="M22" t="n">
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
         <v>106.4521</v>
       </c>
-      <c r="N22" t="n">
+      <c r="AA22" t="n">
         <v>187.3533</v>
       </c>
-      <c r="O22" t="n">
+      <c r="AB22" t="n">
         <v>120.5863</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="n">
         <v>26.8761</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>45159</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>171.1058</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>98.49460000000001</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>136.4129</v>
+      </c>
+      <c r="G23" t="n">
         <v>153.8128</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>219.1998</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>8.791399999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>125.9072</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.4326</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>3.3055</v>
       </c>
-      <c r="I23" t="n">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>105.782</v>
+      </c>
+      <c r="R23" t="n">
         <v>95.2671</v>
       </c>
-      <c r="J23" t="n">
+      <c r="S23" t="n">
+        <v>227.0214</v>
+      </c>
+      <c r="T23" t="n">
         <v>196.7298</v>
       </c>
-      <c r="K23" t="n">
+      <c r="U23" t="n">
+        <v>1.3696</v>
+      </c>
+      <c r="V23" t="n">
         <v>80.6795</v>
       </c>
-      <c r="L23" t="n">
+      <c r="W23" t="n">
+        <v>123.6143</v>
+      </c>
+      <c r="X23" t="n">
         <v>111.7151</v>
       </c>
-      <c r="M23" t="n">
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
         <v>100.8954</v>
       </c>
-      <c r="N23" t="n">
+      <c r="AA23" t="n">
         <v>100.2715</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="n">
         <v>51.3704</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>45163</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
         <v>212.7516</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>3.4697</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>291.7996</v>
+      </c>
+      <c r="G24" t="n">
         <v>3.8698</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>10.8457</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
+        <v>157.9216</v>
+      </c>
+      <c r="J24" t="n">
+        <v>119.3584</v>
+      </c>
+      <c r="K24" t="n">
         <v>6.8778</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>192.2878</v>
       </c>
-      <c r="I24" t="n">
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>191.4121</v>
+      </c>
+      <c r="R24" t="n">
         <v>94.05840000000001</v>
       </c>
-      <c r="J24" t="n">
+      <c r="S24" t="n">
+        <v>256.1109</v>
+      </c>
+      <c r="T24" t="n">
         <v>206.0485</v>
       </c>
-      <c r="K24" t="n">
+      <c r="U24" t="n">
+        <v>3.6747</v>
+      </c>
+      <c r="V24" t="n">
         <v>4.2907</v>
       </c>
-      <c r="L24" t="n">
+      <c r="W24" t="n">
+        <v>68.65260000000001</v>
+      </c>
+      <c r="X24" t="n">
         <v>201.4909</v>
       </c>
-      <c r="M24" t="n">
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
         <v>229.0507</v>
       </c>
-      <c r="N24" t="n">
+      <c r="AA24" t="n">
         <v>254.9317</v>
       </c>
-      <c r="O24" t="n">
+      <c r="AB24" t="n">
         <v>219.1428</v>
       </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>45165</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>181.0584</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>289.9702</v>
+      </c>
+      <c r="G25" t="n">
         <v>19.7113</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>30.253</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
+        <v>166.5441</v>
+      </c>
+      <c r="J25" t="n">
+        <v>148.7812</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>56.2028</v>
       </c>
-      <c r="I25" t="n">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>185.5346</v>
+      </c>
+      <c r="R25" t="n">
         <v>23.7614</v>
       </c>
-      <c r="J25" t="n">
+      <c r="S25" t="n">
+        <v>248.8051</v>
+      </c>
+      <c r="T25" t="n">
         <v>252.1745</v>
       </c>
-      <c r="K25" t="n">
+      <c r="U25" t="n">
+        <v>93.315</v>
+      </c>
+      <c r="V25" t="n">
         <v>243.8691</v>
       </c>
-      <c r="L25" t="n">
+      <c r="W25" t="n">
+        <v>103.6715</v>
+      </c>
+      <c r="X25" t="n">
         <v>211.8311</v>
       </c>
-      <c r="M25" t="n">
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
         <v>249.8954</v>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="n">
         <v>195.3347</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="n">
         <v>10.5877</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>45170</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
         <v>211.7687</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>60.5679</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>260.5989</v>
+      </c>
+      <c r="G26" t="n">
         <v>13.769</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>18.6659</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
+        <v>22.9045</v>
+      </c>
+      <c r="J26" t="n">
+        <v>118.6533</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.9068</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>221.0121</v>
       </c>
-      <c r="I26" t="n">
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>189.4001</v>
+      </c>
+      <c r="R26" t="n">
         <v>24.6252</v>
       </c>
-      <c r="J26" t="n">
+      <c r="S26" t="n">
+        <v>289.6049</v>
+      </c>
+      <c r="T26" t="n">
         <v>253.6534</v>
       </c>
-      <c r="K26" t="n">
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="n">
         <v>12.41</v>
       </c>
-      <c r="L26" t="n">
+      <c r="W26" t="n">
+        <v>149.0658</v>
+      </c>
+      <c r="X26" t="n">
         <v>247.9109</v>
       </c>
-      <c r="M26" t="n">
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
         <v>75.566</v>
       </c>
-      <c r="N26" t="n">
+      <c r="AA26" t="n">
         <v>227.3076</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AB26" t="n">
         <v>163.9793</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="n">
         <v>29.1162</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>45172</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
         <v>205.4059</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>31.2901</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>129.3393</v>
+      </c>
+      <c r="G27" t="n">
         <v>26.9708</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>131.6744</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
+        <v>28.2505</v>
+      </c>
+      <c r="J27" t="n">
+        <v>186.8609</v>
+      </c>
+      <c r="K27" t="n">
         <v>32.1299</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>222.2322</v>
       </c>
-      <c r="I27" t="n">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>108.6302</v>
+      </c>
+      <c r="R27" t="n">
         <v>138.6313</v>
       </c>
-      <c r="J27" t="n">
+      <c r="S27" t="n">
+        <v>260.0869</v>
+      </c>
+      <c r="T27" t="n">
         <v>34.7223</v>
       </c>
-      <c r="K27" t="n">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="n">
         <v>126.0407</v>
       </c>
-      <c r="L27" t="n">
+      <c r="W27" t="n">
+        <v>190.8427</v>
+      </c>
+      <c r="X27" t="n">
         <v>226.7052</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
         <v>244.6119</v>
       </c>
-      <c r="N27" t="n">
+      <c r="AA27" t="n">
         <v>154.8971</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AB27" t="n">
         <v>168.4223</v>
       </c>
-      <c r="P27" t="n">
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="n">
         <v>37.0687</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>45177</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
         <v>196.3915</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>251.3611</v>
+      </c>
+      <c r="G28" t="n">
         <v>3.5068</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>6.8237</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
+        <v>168.2955</v>
+      </c>
+      <c r="J28" t="n">
+        <v>130.5002</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.6817</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>213.8293</v>
       </c>
-      <c r="I28" t="n">
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>169.4104</v>
+      </c>
+      <c r="R28" t="n">
         <v>12.7754</v>
       </c>
-      <c r="J28" t="n">
+      <c r="S28" t="n">
+        <v>204.6527</v>
+      </c>
+      <c r="T28" t="n">
         <v>229.0755</v>
       </c>
-      <c r="K28" t="n">
+      <c r="U28" t="n">
+        <v>1.2465</v>
+      </c>
+      <c r="V28" t="n">
         <v>91.2226</v>
       </c>
-      <c r="L28" t="n">
+      <c r="W28" t="n">
+        <v>55.9263</v>
+      </c>
+      <c r="X28" t="n">
         <v>223.332</v>
       </c>
-      <c r="M28" t="n">
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
         <v>196.3077</v>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="n">
         <v>134.5196</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="n">
         <v>3.0035</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>45179</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
         <v>202.4598</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>21.1656</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>288.8834</v>
+      </c>
+      <c r="G29" t="n">
         <v>26.5388</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>23.2833</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>155.217</v>
+      </c>
+      <c r="J29" t="n">
+        <v>175.1754</v>
+      </c>
+      <c r="K29" t="n">
         <v>25.7963</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>190.217</v>
       </c>
-      <c r="I29" t="n">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="n">
         <v>30.7742</v>
       </c>
-      <c r="J29" t="n">
+      <c r="S29" t="n">
+        <v>194.34</v>
+      </c>
+      <c r="T29" t="n">
         <v>267.7896</v>
       </c>
-      <c r="K29" t="n">
+      <c r="U29" t="n">
+        <v>22.0221</v>
+      </c>
+      <c r="V29" t="n">
         <v>85.32810000000001</v>
       </c>
-      <c r="L29" t="n">
+      <c r="W29" t="n">
+        <v>148.5966</v>
+      </c>
+      <c r="X29" t="n">
         <v>229.725</v>
       </c>
-      <c r="M29" t="n">
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
         <v>126.9538</v>
       </c>
-      <c r="N29" t="n">
+      <c r="AA29" t="n">
         <v>234.4966</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AB29" t="n">
         <v>249.8337</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
         <v>10.2747</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>45184</v>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
         <v>90.6618</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>214.0709</v>
+      </c>
+      <c r="G30" t="n">
         <v>29.5396</v>
       </c>
-      <c r="E30" t="n">
+      <c r="H30" t="n">
         <v>59.908</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
+        <v>103.8912</v>
+      </c>
+      <c r="J30" t="n">
+        <v>118.5085</v>
+      </c>
+      <c r="K30" t="n">
         <v>31.4831</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>189.2517</v>
       </c>
-      <c r="I30" t="n">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
         <v>72.29640000000001</v>
       </c>
-      <c r="J30" t="n">
+      <c r="S30" t="n">
+        <v>16.165</v>
+      </c>
+      <c r="T30" t="n">
         <v>217.8809</v>
       </c>
-      <c r="K30" t="n">
+      <c r="U30" t="n">
+        <v>146.1741</v>
+      </c>
+      <c r="V30" t="n">
         <v>80.55540000000001</v>
       </c>
-      <c r="L30" t="n">
+      <c r="W30" t="n">
+        <v>95.7287</v>
+      </c>
+      <c r="X30" t="n">
         <v>235.6784</v>
       </c>
-      <c r="M30" t="n">
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
         <v>221.4134</v>
       </c>
-      <c r="N30" t="n">
+      <c r="AA30" t="n">
         <v>193.9526</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="n">
         <v>38.2386</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>45186</v>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
         <v>19.783</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>237.8078</v>
+      </c>
+      <c r="G31" t="n">
         <v>20.8513</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
         <v>21.9483</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
+        <v>118.3077</v>
+      </c>
+      <c r="J31" t="n">
+        <v>163.6066</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>192.4016</v>
       </c>
-      <c r="I31" t="n">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
         <v>28.1637</v>
       </c>
-      <c r="J31" t="n">
+      <c r="S31" t="n">
+        <v>285.6434</v>
+      </c>
+      <c r="T31" t="n">
         <v>252.3234</v>
       </c>
-      <c r="K31" t="n">
+      <c r="U31" t="n">
+        <v>80.9221</v>
+      </c>
+      <c r="V31" t="n">
         <v>113.5856</v>
       </c>
-      <c r="L31" t="n">
+      <c r="W31" t="n">
+        <v>107.1232</v>
+      </c>
+      <c r="X31" t="n">
         <v>195.4943</v>
       </c>
-      <c r="M31" t="n">
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
         <v>235.016</v>
       </c>
-      <c r="N31" t="n">
+      <c r="AA31" t="n">
         <v>221.2299</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="n">
         <v>48.266</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>45191</v>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
         <v>99.9385</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>217.5943</v>
+      </c>
+      <c r="G32" t="n">
         <v>7.4079</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>9.497</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
+        <v>78.71339999999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>176.9568</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>204.6417</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>179.1054</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>277.3999</v>
+      </c>
+      <c r="T32" t="n">
         <v>252.466</v>
       </c>
-      <c r="K32" t="n">
+      <c r="U32" t="n">
+        <v>126.8474</v>
+      </c>
+      <c r="V32" t="n">
         <v>43.4271</v>
       </c>
-      <c r="L32" t="n">
+      <c r="W32" t="n">
+        <v>131.7663</v>
+      </c>
+      <c r="X32" t="n">
         <v>192.0144</v>
       </c>
-      <c r="M32" t="n">
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="n">
+      <c r="AA32" t="n">
         <v>206.8247</v>
       </c>
-      <c r="O32" t="n">
+      <c r="AB32" t="n">
         <v>139.1699</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="n">
         <v>32.7885</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>45198</v>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
         <v>17.0539</v>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>206.4938</v>
+      </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>159.1276</v>
+      </c>
+      <c r="J33" t="n">
+        <v>152.4018</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>241.141</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>220.2889</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>292.4098</v>
+      </c>
+      <c r="T33" t="n">
         <v>262.0326</v>
       </c>
-      <c r="K33" t="n">
+      <c r="U33" t="n">
+        <v>111.4805</v>
+      </c>
+      <c r="V33" t="n">
         <v>89.7153</v>
       </c>
-      <c r="L33" t="n">
+      <c r="W33" t="n">
+        <v>137.6944</v>
+      </c>
+      <c r="X33" t="n">
         <v>244.2808</v>
       </c>
-      <c r="M33" t="n">
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
         <v>269.296</v>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="n">
         <v>233.1838</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="n">
         <v>40.9042</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>45200</v>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
         <v>165.4421</v>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>233.3521</v>
+      </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>219.716</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.8676</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>195.8989</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>203.884</v>
+      </c>
+      <c r="T34" t="n">
         <v>195.5106</v>
       </c>
-      <c r="K34" t="n">
+      <c r="U34" t="n">
+        <v>222.2667</v>
+      </c>
+      <c r="V34" t="n">
         <v>198.3583</v>
       </c>
-      <c r="L34" t="n">
+      <c r="W34" t="n">
+        <v>187.1493</v>
+      </c>
+      <c r="X34" t="n">
         <v>223.0922</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
         <v>169.8363</v>
       </c>
-      <c r="N34" t="n">
+      <c r="AA34" t="n">
         <v>194.7317</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AB34" t="n">
         <v>93.9776</v>
       </c>
-      <c r="P34" t="n">
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="n">
         <v>95.48820000000001</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>45205</v>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
         <v>105.7319</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>252.5408</v>
+      </c>
+      <c r="G35" t="n">
         <v>74.73950000000001</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>36.4344</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
+        <v>139.9614</v>
+      </c>
+      <c r="J35" t="n">
+        <v>166.0068</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>224.7194</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>311.2787</v>
+      </c>
+      <c r="T35" t="n">
         <v>257.9801</v>
       </c>
-      <c r="K35" t="n">
+      <c r="U35" t="n">
+        <v>111.3695</v>
+      </c>
+      <c r="V35" t="n">
         <v>37.9038</v>
       </c>
-      <c r="L35" t="n">
+      <c r="W35" t="n">
+        <v>82.9675</v>
+      </c>
+      <c r="X35" t="n">
         <v>186.822</v>
       </c>
-      <c r="M35" t="n">
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
         <v>254.9536</v>
       </c>
-      <c r="N35" t="n">
+      <c r="AA35" t="n">
         <v>241.0206</v>
       </c>
-      <c r="O35" t="n">
+      <c r="AB35" t="n">
         <v>212.9114</v>
       </c>
-      <c r="P35" t="n">
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="n">
         <v>32.6472</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>45207</v>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
         <v>145.6865</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>78.4654</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>280.2167</v>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
+        <v>78.4654</v>
+      </c>
+      <c r="I36" t="n">
+        <v>108.9585</v>
+      </c>
+      <c r="J36" t="n">
+        <v>155.3706</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>210.3775</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>239.377</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
         <v>24.3039</v>
       </c>
-      <c r="L36" t="n">
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
         <v>228.5877</v>
       </c>
-      <c r="M36" t="n">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
         <v>231.5851</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AA36" t="n">
         <v>190.9258</v>
       </c>
-      <c r="O36" t="n">
+      <c r="AB36" t="n">
         <v>169.9879</v>
       </c>
-      <c r="P36" t="n">
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="n">
         <v>11.3901</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>45212</v>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>105.5487</v>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>200.005</v>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>157.9807</v>
+      </c>
+      <c r="J37" t="n">
+        <v>84.65779999999999</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>157.6912</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>173.9178</v>
+      </c>
+      <c r="T37" t="n">
         <v>184.8815</v>
       </c>
-      <c r="K37" t="n">
+      <c r="U37" t="n">
+        <v>105.059</v>
+      </c>
+      <c r="V37" t="n">
         <v>99.041</v>
       </c>
-      <c r="L37" t="n">
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
         <v>226.6495</v>
       </c>
-      <c r="M37" t="n">
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
         <v>196.8552</v>
       </c>
-      <c r="N37" t="n">
+      <c r="AA37" t="n">
         <v>129.282</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="n">
         <v>46.7915</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1918,258 +3254,410 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>53.7608</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>184.6795</v>
       </c>
-      <c r="I38" t="n">
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
+      <c r="S38" t="n">
+        <v>268.1972</v>
+      </c>
+      <c r="T38" t="n">
         <v>235.0205</v>
       </c>
-      <c r="K38" t="n">
+      <c r="U38" t="n">
+        <v>130.3019</v>
+      </c>
+      <c r="V38" t="n">
         <v>56.3793</v>
       </c>
-      <c r="L38" t="n">
+      <c r="W38" t="n">
+        <v>3.4476</v>
+      </c>
+      <c r="X38" t="n">
         <v>199.5936</v>
       </c>
-      <c r="M38" t="n">
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
         <v>225.6157</v>
       </c>
-      <c r="N38" t="n">
+      <c r="AA38" t="n">
         <v>212.2495</v>
       </c>
-      <c r="O38" t="n">
+      <c r="AB38" t="n">
         <v>200.6619</v>
       </c>
-      <c r="P38" t="n">
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="n">
         <v>17.8965</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>45221</v>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
         <v>21.6775</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>284.8514</v>
+      </c>
+      <c r="G39" t="n">
         <v>53.9736</v>
       </c>
-      <c r="E39" t="n">
+      <c r="H39" t="n">
         <v>22.0938</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
+        <v>23.5201</v>
+      </c>
+      <c r="J39" t="n">
+        <v>183.6304</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>208.1062</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>250.1554</v>
+      </c>
+      <c r="T39" t="n">
         <v>189.084</v>
       </c>
-      <c r="K39" t="n">
+      <c r="U39" t="n">
+        <v>33.9748</v>
+      </c>
+      <c r="V39" t="n">
         <v>164.7153</v>
       </c>
-      <c r="L39" t="n">
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>227.7472</v>
       </c>
-      <c r="M39" t="n">
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
         <v>230.312</v>
       </c>
-      <c r="N39" t="n">
+      <c r="AA39" t="n">
         <v>225.7704</v>
       </c>
-      <c r="O39" t="n">
+      <c r="AB39" t="n">
         <v>258.1384</v>
       </c>
-      <c r="P39" t="n">
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="n">
         <v>29.8399</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>45226</v>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
         <v>38.6619</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>286.848</v>
+      </c>
+      <c r="G40" t="n">
         <v>40.5904</v>
       </c>
-      <c r="E40" t="n">
+      <c r="H40" t="n">
         <v>35.2937</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>43.6517</v>
+      </c>
+      <c r="J40" t="n">
+        <v>252.8808</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>199.8298</v>
       </c>
-      <c r="I40" t="n">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
+      <c r="S40" t="n">
+        <v>257.2394</v>
+      </c>
+      <c r="T40" t="n">
         <v>231.5499</v>
       </c>
-      <c r="K40" t="n">
+      <c r="U40" t="n">
+        <v>43.2531</v>
+      </c>
+      <c r="V40" t="n">
         <v>142.0663</v>
       </c>
-      <c r="L40" t="n">
+      <c r="W40" t="n">
+        <v>57.5818</v>
+      </c>
+      <c r="X40" t="n">
         <v>209.6381</v>
       </c>
-      <c r="M40" t="n">
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
         <v>238.527</v>
       </c>
-      <c r="N40" t="n">
+      <c r="AA40" t="n">
         <v>177.6215</v>
       </c>
-      <c r="O40" t="n">
+      <c r="AB40" t="n">
         <v>260.987</v>
       </c>
-      <c r="P40" t="n">
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="n">
         <v>40.1638</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>45228</v>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
         <v>11.3372</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>252.0337</v>
+      </c>
+      <c r="G41" t="n">
         <v>9.973599999999999</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>10.0001</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
+        <v>227.6096</v>
+      </c>
+      <c r="J41" t="n">
+        <v>129.3737</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>224.3097</v>
       </c>
-      <c r="I41" t="n">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
         <v>15.084</v>
       </c>
-      <c r="J41" t="n">
+      <c r="S41" t="n">
+        <v>297.4427</v>
+      </c>
+      <c r="T41" t="n">
         <v>277.0948</v>
       </c>
-      <c r="K41" t="n">
+      <c r="U41" t="n">
+        <v>75.361</v>
+      </c>
+      <c r="V41" t="n">
         <v>116.9383</v>
       </c>
-      <c r="L41" t="n">
+      <c r="W41" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="X41" t="n">
         <v>201.3998</v>
       </c>
-      <c r="M41" t="n">
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
         <v>273.2032</v>
       </c>
-      <c r="N41" t="n">
+      <c r="AA41" t="n">
         <v>249.7856</v>
       </c>
-      <c r="O41" t="n">
+      <c r="AB41" t="n">
         <v>250.5966</v>
       </c>
-      <c r="P41" t="n">
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="n">
         <v>34.5346</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>45232</v>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
         <v>36.9785</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>249.0989</v>
+      </c>
+      <c r="G42" t="n">
         <v>37.4468</v>
       </c>
-      <c r="E42" t="n">
+      <c r="H42" t="n">
         <v>42.2376</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
+        <v>282.0649</v>
+      </c>
+      <c r="J42" t="n">
+        <v>179.4284</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>211.163</v>
       </c>
-      <c r="I42" t="n">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="n">
         <v>45.0321</v>
       </c>
-      <c r="J42" t="n">
+      <c r="S42" t="n">
+        <v>261.0206</v>
+      </c>
+      <c r="T42" t="n">
         <v>275.1903</v>
       </c>
-      <c r="K42" t="n">
+      <c r="U42" t="n">
+        <v>55.6625</v>
+      </c>
+      <c r="V42" t="n">
         <v>146.4782</v>
       </c>
-      <c r="L42" t="n">
+      <c r="W42" t="n">
+        <v>135.0273</v>
+      </c>
+      <c r="X42" t="n">
         <v>233.5599</v>
       </c>
-      <c r="M42" t="n">
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
         <v>194.4226</v>
       </c>
-      <c r="N42" t="n">
+      <c r="AA42" t="n">
         <v>251.576</v>
       </c>
-      <c r="O42" t="n">
+      <c r="AB42" t="n">
         <v>218.4039</v>
       </c>
-      <c r="P42" t="n">
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="n">
         <v>15.3128</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>45396</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
         <v>186.6993</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
         <v>121.7681</v>
       </c>
-      <c r="E43" t="n">
+      <c r="H43" t="n">
         <v>215.1092</v>
       </c>
-      <c r="F43" t="n">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
         <v>127.32</v>
       </c>
-      <c r="G43" t="n">
+      <c r="L43" t="n">
         <v>162.4701</v>
       </c>
-      <c r="H43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>165.6052</v>
       </c>
-      <c r="I43" t="n">
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
         <v>90.48820000000001</v>
       </c>
-      <c r="J43" t="n">
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
         <v>216.1848</v>
       </c>
-      <c r="K43" t="n">
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="n">
         <v>182.2364</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
         <v>197.4673</v>
       </c>
-      <c r="N43" t="n">
+      <c r="AA43" t="n">
         <v>207.1576</v>
       </c>
-      <c r="O43" t="n">
+      <c r="AB43" t="n">
         <v>156.4512</v>
       </c>
-      <c r="P43" t="n">
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="n">
         <v>86.8236</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2178,38 +3666,54 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
         <v>208.0586</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
         <v>92.8789</v>
       </c>
-      <c r="H44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>171.5713</v>
       </c>
-      <c r="I44" t="n">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
         <v>163.2392</v>
       </c>
-      <c r="J44" t="n">
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
         <v>191.7955</v>
       </c>
-      <c r="K44" t="n">
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
         <v>214.2701</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
         <v>210.9981</v>
       </c>
-      <c r="N44" t="n">
+      <c r="AA44" t="n">
         <v>177.028</v>
       </c>
-      <c r="O44" t="n">
+      <c r="AB44" t="n">
         <v>236.1113</v>
       </c>
-      <c r="P44" t="n">
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="n">
         <v>65.87260000000001</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
